--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_3_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3221241.552330689</v>
+        <v>3220514.953459464</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.615330305</v>
+        <v>5851605.615330297</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.6793124477</v>
+        <v>864456.6793124473</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>328.1229395778171</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>77.04952823743895</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>70.6083929140368</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>91.42297362471069</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -803,7 +803,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -819,13 +819,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>64.91394973603599</v>
       </c>
       <c r="E4" t="n">
-        <v>29.97154776676438</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>74.005365717641</v>
+        <v>55.542901143133</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868346</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -1034,7 +1034,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368968</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
         <v>211.1008365810345</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -1062,16 +1062,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>142.5359303380062</v>
       </c>
       <c r="Y7" t="n">
-        <v>122.273497641932</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>255.0081468155732</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>384.8774717948093</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>110.6199347530832</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>256.8454395874278</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D11" t="n">
-        <v>370.9203488815331</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G11" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975951</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U11" t="n">
-        <v>224.9909450967469</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V11" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W11" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298449</v>
       </c>
       <c r="X11" t="n">
-        <v>367.1380221263989</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>28.62291687287236</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F13" t="n">
-        <v>56.72514580316177</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162598</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037904</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501628</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U13" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C14" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397592</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975951</v>
+        <v>55.98930332975884</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T14" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
-        <v>224.9909450967469</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W14" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X14" t="n">
-        <v>367.1380221263989</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="15">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875626</v>
+        <v>88.04314577169667</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162598</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037904</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T16" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U16" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
-        <v>106.6488155538381</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C17" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D17" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E17" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G17" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975951</v>
+        <v>55.98930332975884</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T17" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U17" t="n">
-        <v>224.9909450967469</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V17" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W17" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X17" t="n">
-        <v>367.1380221264004</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="18">
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037904</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501628</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125508</v>
+        <v>103.188557496685</v>
       </c>
       <c r="T19" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U19" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
-        <v>180.4209367886185</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C20" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D20" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E20" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F20" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G20" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722223</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975951</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T20" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U20" t="n">
-        <v>224.9909450967469</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V20" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W20" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X20" t="n">
-        <v>367.1380221263989</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y20" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.56236697288521</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875626</v>
+        <v>88.04314577169667</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501628</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T22" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U22" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V22" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C23" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D23" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E23" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F23" t="n">
         <v>387.3211661995113</v>
@@ -2335,10 +2335,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975951</v>
+        <v>55.98930332975955</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T23" t="n">
         <v>190.4854774862717</v>
       </c>
       <c r="U23" t="n">
-        <v>224.9909450967469</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V23" t="n">
         <v>316.8402373905461</v>
@@ -2383,7 +2383,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X23" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y23" t="n">
         <v>367.4283645950528</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.56236697288521</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C25" t="n">
         <v>139.8834969875626</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501628</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T25" t="n">
-        <v>207.6543099067269</v>
+        <v>22.32808578668537</v>
       </c>
       <c r="U25" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
         <v>241.6479458835352</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C26" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D26" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815319</v>
       </c>
       <c r="E26" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019341</v>
       </c>
       <c r="F26" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995112</v>
       </c>
       <c r="G26" t="n">
-        <v>375.1420595397591</v>
+        <v>375.142059539758</v>
       </c>
       <c r="H26" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975947</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>104.4293227275022</v>
+        <v>104.429322727504</v>
       </c>
       <c r="T26" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U26" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V26" t="n">
-        <v>316.8402373905461</v>
+        <v>316.840237390546</v>
       </c>
       <c r="W26" t="n">
-        <v>350.4237561298451</v>
+        <v>350.423756129845</v>
       </c>
       <c r="X26" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y26" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950527</v>
       </c>
     </row>
     <row r="27">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.04510745646595</v>
+        <v>156.3237676037658</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>33.12209635668304</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501625</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125507</v>
       </c>
       <c r="T28" t="n">
-        <v>207.6543099067269</v>
+        <v>207.6543099067268</v>
       </c>
       <c r="U28" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W28" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X28" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925753</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.9893998987849</v>
+        <v>192.9893998987848</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C29" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D29" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815319</v>
       </c>
       <c r="E29" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019341</v>
       </c>
       <c r="F29" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995112</v>
       </c>
       <c r="G29" t="n">
-        <v>375.1420595397581</v>
+        <v>375.142059539758</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332976053</v>
+        <v>55.98930332976098</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4293227275022</v>
+        <v>104.429322727502</v>
       </c>
       <c r="T29" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U29" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V29" t="n">
-        <v>316.8402373905461</v>
+        <v>316.840237390546</v>
       </c>
       <c r="W29" t="n">
-        <v>350.4237561298451</v>
+        <v>350.423756129845</v>
       </c>
       <c r="X29" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y29" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950527</v>
       </c>
     </row>
     <row r="30">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.3237676037658</v>
       </c>
       <c r="C31" t="n">
-        <v>59.64309870642131</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>103.1885574966874</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067269</v>
+        <v>207.6543099067268</v>
       </c>
       <c r="U31" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W31" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925753</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.9893998987849</v>
+        <v>192.9893998987848</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C32" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D32" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815319</v>
       </c>
       <c r="E32" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019341</v>
       </c>
       <c r="F32" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995112</v>
       </c>
       <c r="G32" t="n">
-        <v>375.1420595397581</v>
+        <v>375.142059539758</v>
       </c>
       <c r="H32" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976098</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>104.4293227275022</v>
+        <v>104.429322727502</v>
       </c>
       <c r="T32" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U32" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V32" t="n">
-        <v>316.8402373905461</v>
+        <v>316.840237390546</v>
       </c>
       <c r="W32" t="n">
-        <v>350.4237561298451</v>
+        <v>350.423756129845</v>
       </c>
       <c r="X32" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y32" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950527</v>
       </c>
     </row>
     <row r="33">
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>156.3237676037658</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>61.04510745646594</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>33.12209635668304</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501625</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125507</v>
       </c>
       <c r="T34" t="n">
-        <v>207.6543099067269</v>
+        <v>207.6543099067268</v>
       </c>
       <c r="U34" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V34" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W34" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X34" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925753</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.9893998987849</v>
+        <v>192.9893998987848</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C35" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D35" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815319</v>
       </c>
       <c r="E35" t="n">
-        <v>380.697871601935</v>
+        <v>380.6978716019341</v>
       </c>
       <c r="F35" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995112</v>
       </c>
       <c r="G35" t="n">
-        <v>375.1420595397581</v>
+        <v>375.142059539758</v>
       </c>
       <c r="H35" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976098</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>104.4293227275022</v>
+        <v>104.429322727502</v>
       </c>
       <c r="T35" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U35" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V35" t="n">
-        <v>316.8402373905461</v>
+        <v>316.840237390546</v>
       </c>
       <c r="W35" t="n">
-        <v>350.4237561298451</v>
+        <v>350.423756129845</v>
       </c>
       <c r="X35" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y35" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950527</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037658</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875627</v>
+        <v>88.04314577169937</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125507</v>
       </c>
       <c r="T37" t="n">
-        <v>207.6543099067269</v>
+        <v>207.6543099067268</v>
       </c>
       <c r="U37" t="n">
-        <v>200.6202780835285</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W37" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X37" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925753</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>192.9893998987848</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>380.6978716019343</v>
       </c>
       <c r="F38" t="n">
-        <v>387.3211661995121</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G38" t="n">
         <v>375.1420595397581</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T38" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U38" t="n">
         <v>224.990945096747</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>155.0289087125508</v>
+        <v>46.36316546205803</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V40" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W40" t="n">
-        <v>125.9103462479684</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X40" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y40" t="n">
         <v>192.9893998987849</v>
@@ -3754,7 +3754,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>182.1412945836353</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>3.913542846909213</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>197.0995067208582</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3994,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,10 +4033,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>243.833185100996</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4045,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.2425928248792</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>64.97216884135977</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>267.38583728833</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1298.0981563506</v>
+        <v>948.2606016870868</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.013969704274</v>
+        <v>538.1360110003569</v>
       </c>
       <c r="D2" t="n">
-        <v>960.5766569994081</v>
+        <v>133.6720810934174</v>
       </c>
       <c r="E2" t="n">
-        <v>546.2364415163048</v>
+        <v>55.84427479297405</v>
       </c>
       <c r="F2" t="n">
-        <v>125.2060294699924</v>
+        <v>38.85426678706566</v>
       </c>
       <c r="G2" t="n">
-        <v>120.5181494032286</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="H2" t="n">
-        <v>120.5181494032286</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="I2" t="n">
-        <v>34.16638672030179</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="J2" t="n">
-        <v>288.3518581880561</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="K2" t="n">
-        <v>541.5402578923281</v>
+        <v>456.9754223840381</v>
       </c>
       <c r="L2" t="n">
-        <v>964.3492935560627</v>
+        <v>879.7844580477743</v>
       </c>
       <c r="M2" t="n">
-        <v>964.3492935560627</v>
+        <v>1302.59349371151</v>
       </c>
       <c r="N2" t="n">
-        <v>1387.158329219797</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="O2" t="n">
-        <v>1387.158329219797</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="P2" t="n">
-        <v>1387.158329219797</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="Q2" t="n">
-        <v>1708.319336015089</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.319336015089</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="S2" t="n">
-        <v>1708.319336015089</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="T2" t="n">
-        <v>1708.319336015089</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="U2" t="n">
-        <v>1708.319336015089</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="V2" t="n">
-        <v>1708.319336015089</v>
+        <v>1358.481781351576</v>
       </c>
       <c r="W2" t="n">
-        <v>1708.319336015089</v>
+        <v>1358.481781351576</v>
       </c>
       <c r="X2" t="n">
-        <v>1708.319336015089</v>
+        <v>1358.481781351576</v>
       </c>
       <c r="Y2" t="n">
-        <v>1708.319336015089</v>
+        <v>1358.481781351576</v>
       </c>
     </row>
     <row r="3">
@@ -4388,67 +4388,67 @@
         <v>712.9972286068362</v>
       </c>
       <c r="C3" t="n">
-        <v>579.0021573557818</v>
+        <v>579.0021573557819</v>
       </c>
       <c r="D3" t="n">
-        <v>462.1049995751742</v>
+        <v>462.1049995751744</v>
       </c>
       <c r="E3" t="n">
-        <v>341.6121835675023</v>
+        <v>341.6121835675024</v>
       </c>
       <c r="F3" t="n">
-        <v>232.6523037500069</v>
+        <v>232.652303750007</v>
       </c>
       <c r="G3" t="n">
-        <v>125.6621910643456</v>
+        <v>125.6621910643457</v>
       </c>
       <c r="H3" t="n">
-        <v>54.91497810006162</v>
+        <v>54.91497810006175</v>
       </c>
       <c r="I3" t="n">
-        <v>34.16638672030179</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="J3" t="n">
-        <v>226.979244282935</v>
+        <v>226.9792442829352</v>
       </c>
       <c r="K3" t="n">
-        <v>649.7882799466696</v>
+        <v>649.7882799466713</v>
       </c>
       <c r="L3" t="n">
-        <v>935.6658356673714</v>
+        <v>649.7882799466713</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.474871331106</v>
+        <v>649.7882799466713</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.474871331106</v>
+        <v>649.7882799466713</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.474871331106</v>
+        <v>1072.597315610407</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.474871331106</v>
+        <v>1358.474871331112</v>
       </c>
       <c r="Q3" t="n">
-        <v>1708.319336015089</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.319336015089</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="S3" t="n">
-        <v>1636.997727011012</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="T3" t="n">
-        <v>1636.997727011012</v>
+        <v>1708.319336015096</v>
       </c>
       <c r="U3" t="n">
-        <v>1439.64691614923</v>
+        <v>1615.972898010337</v>
       </c>
       <c r="V3" t="n">
-        <v>1225.935389142264</v>
+        <v>1402.261371003371</v>
       </c>
       <c r="W3" t="n">
-        <v>1012.702220878593</v>
+        <v>1189.0282027397</v>
       </c>
       <c r="X3" t="n">
         <v>1012.702220878593</v>
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.44067739380117</v>
+        <v>270.8294053566016</v>
       </c>
       <c r="C4" t="n">
-        <v>64.44067739380117</v>
+        <v>99.73603291831807</v>
       </c>
       <c r="D4" t="n">
-        <v>64.44067739380117</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="E4" t="n">
-        <v>34.16638672030179</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="F4" t="n">
-        <v>34.16638672030179</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="G4" t="n">
-        <v>34.16638672030179</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="H4" t="n">
-        <v>34.16638672030179</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="I4" t="n">
-        <v>34.16638672030179</v>
+        <v>34.16638672030192</v>
       </c>
       <c r="J4" t="n">
-        <v>48.24893612551231</v>
+        <v>48.24893612551244</v>
       </c>
       <c r="K4" t="n">
-        <v>202.8012638477503</v>
+        <v>202.8012638477504</v>
       </c>
       <c r="L4" t="n">
-        <v>462.6983641278108</v>
+        <v>462.698364127811</v>
       </c>
       <c r="M4" t="n">
-        <v>751.9624205683041</v>
+        <v>751.9624205683042</v>
       </c>
       <c r="N4" t="n">
         <v>1032.801202962554</v>
       </c>
       <c r="O4" t="n">
-        <v>1292.361813289028</v>
+        <v>1292.361813289029</v>
       </c>
       <c r="P4" t="n">
         <v>1498.037253538641</v>
@@ -4512,28 +4512,28 @@
         <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>1478.292565016551</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="S4" t="n">
-        <v>1291.900796896462</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="T4" t="n">
-        <v>1052.352057873164</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="U4" t="n">
-        <v>769.5539104192878</v>
+        <v>1195.494417562676</v>
       </c>
       <c r="V4" t="n">
-        <v>769.5539104192878</v>
+        <v>921.6086725021978</v>
       </c>
       <c r="W4" t="n">
-        <v>490.4842459281622</v>
+        <v>921.6086725021978</v>
       </c>
       <c r="X4" t="n">
-        <v>252.1403837878456</v>
+        <v>683.2648103618812</v>
       </c>
       <c r="Y4" t="n">
-        <v>252.1403837878456</v>
+        <v>458.5291117506459</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2082.073505856017</v>
+        <v>1348.475650327666</v>
       </c>
       <c r="C5" t="n">
-        <v>1671.948915169287</v>
+        <v>1342.39146368134</v>
       </c>
       <c r="D5" t="n">
-        <v>1267.484985262347</v>
+        <v>1341.967937814805</v>
       </c>
       <c r="E5" t="n">
-        <v>853.1447697792441</v>
+        <v>927.6277223317015</v>
       </c>
       <c r="F5" t="n">
-        <v>836.1547617733357</v>
+        <v>506.5973102853891</v>
       </c>
       <c r="G5" t="n">
-        <v>427.4264776661679</v>
+        <v>97.86902617822125</v>
       </c>
       <c r="H5" t="n">
-        <v>116.5179802938859</v>
+        <v>97.86902617822125</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>497.1688317915616</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>497.1688317915616</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>1014.011766457887</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O5" t="n">
-        <v>1530.854701124212</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4603,16 +4603,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>1354.656425951752</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1014.414276561226</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129794</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
         <v>2088.254281480102</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.3531027449756</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C7" t="n">
-        <v>201.259730306692</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
         <v>41.76508562960205</v>
@@ -4755,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1331.615243227154</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.817095773278</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>774.9313507128002</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>495.8616862216745</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>495.8616862216745</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.3531027449756</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>888.3313057386429</v>
+        <v>1946.792430650117</v>
       </c>
       <c r="C8" t="n">
-        <v>882.247119092317</v>
+        <v>1940.708244003792</v>
       </c>
       <c r="D8" t="n">
-        <v>477.7831891853775</v>
+        <v>1683.124257321394</v>
       </c>
       <c r="E8" t="n">
-        <v>63.44297370227418</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="L8" t="n">
-        <v>216.5644706858345</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M8" t="n">
         <v>733.4074053521598</v>
       </c>
       <c r="N8" t="n">
+        <v>733.4074053521598</v>
+      </c>
+      <c r="O8" t="n">
         <v>1250.250340018485</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1767.09327468481</v>
       </c>
       <c r="P8" t="n">
         <v>1767.09327468481</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X8" t="n">
-        <v>1699.489158455042</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y8" t="n">
-        <v>1298.552485403132</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L9" t="n">
-        <v>508.1659581184966</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784822</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="N9" t="n">
-        <v>1025.008892784822</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538.4003990889748</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="C10" t="n">
-        <v>367.3070266506913</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="D10" t="n">
-        <v>367.3070266506913</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>206.3962115190108</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4989,25 +4989,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1485.891263925851</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>1203.093116471976</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="V10" t="n">
-        <v>929.2073714114977</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="W10" t="n">
-        <v>650.137706920372</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="X10" t="n">
-        <v>650.137706920372</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="Y10" t="n">
-        <v>650.137706920372</v>
+        <v>800.5109188153651</v>
       </c>
     </row>
     <row r="11">
@@ -5026,16 +5026,16 @@
         <v>1585.618315208991</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G11" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H11" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5120,19 +5120,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N12" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O12" t="n">
         <v>2139.732893541123</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>494.3549844251427</v>
+        <v>390.723119472716</v>
       </c>
       <c r="C13" t="n">
-        <v>494.3549844251427</v>
+        <v>361.8110822273903</v>
       </c>
       <c r="D13" t="n">
-        <v>494.3549844251427</v>
+        <v>361.8110822273903</v>
       </c>
       <c r="E13" t="n">
-        <v>494.3549844251427</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="F13" t="n">
-        <v>437.0568573512419</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G13" t="n">
-        <v>299.6033771114702</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N13" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O13" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P13" t="n">
         <v>1761.542230672484</v>
@@ -5223,28 +5223,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.20354800875</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U13" t="n">
-        <v>1391.202311389559</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V13" t="n">
-        <v>1147.113477163766</v>
+        <v>992.8374564650669</v>
       </c>
       <c r="W13" t="n">
-        <v>897.8407235073248</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="X13" t="n">
-        <v>689.2937722016931</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="Y13" t="n">
-        <v>494.3549844251427</v>
+        <v>548.6259150320756</v>
       </c>
     </row>
     <row r="14">
@@ -5257,22 +5257,22 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E14" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F14" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G14" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764613</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388641</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5317,13 +5317,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="15">
@@ -5363,22 +5363,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>741.8628115185547</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M15" t="n">
-        <v>1584.839892213121</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N15" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>440.8998387150688</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="C16" t="n">
-        <v>299.6033771114702</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D16" t="n">
-        <v>299.6033771114702</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E16" t="n">
-        <v>299.6033771114702</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>299.6033771114702</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>299.6033771114702</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N16" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O16" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P16" t="n">
         <v>1761.542230672484</v>
@@ -5466,22 +5466,22 @@
         <v>1699.679355498665</v>
       </c>
       <c r="T16" t="n">
-        <v>1489.927527310052</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U16" t="n">
-        <v>1236.926290690861</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V16" t="n">
-        <v>992.837456465068</v>
+        <v>992.8374564650669</v>
       </c>
       <c r="W16" t="n">
-        <v>743.5647028086273</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="X16" t="n">
-        <v>635.8386264916192</v>
+        <v>535.0177515029942</v>
       </c>
       <c r="Y16" t="n">
-        <v>440.8998387150688</v>
+        <v>340.0789637264437</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C17" t="n">
         <v>1960.285334281245</v>
@@ -5503,13 +5503,13 @@
         <v>1201.075010560572</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764613</v>
       </c>
       <c r="H17" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388641</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5554,7 +5554,7 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X17" t="n">
         <v>3092.17704518032</v>
@@ -5603,19 +5603,19 @@
         <v>741.8628115185547</v>
       </c>
       <c r="M18" t="n">
-        <v>741.8628115185547</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N18" t="n">
-        <v>1615.520903630173</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O18" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>310.9067370486074</v>
+        <v>234.5401592942215</v>
       </c>
       <c r="C19" t="n">
-        <v>310.9067370486074</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>310.9067370486074</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N19" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O19" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P19" t="n">
         <v>1761.542230672484</v>
@@ -5697,28 +5697,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S19" t="n">
-        <v>1644.20354800875</v>
+        <v>1752.043346625802</v>
       </c>
       <c r="T19" t="n">
-        <v>1434.451719820137</v>
+        <v>1542.291518437189</v>
       </c>
       <c r="U19" t="n">
-        <v>1181.450483200946</v>
+        <v>1289.290281817998</v>
       </c>
       <c r="V19" t="n">
-        <v>937.3616489751525</v>
+        <v>1045.201447592204</v>
       </c>
       <c r="W19" t="n">
-        <v>688.0888953187118</v>
+        <v>795.9286939357635</v>
       </c>
       <c r="X19" t="n">
-        <v>505.8455248251578</v>
+        <v>587.3817426301316</v>
       </c>
       <c r="Y19" t="n">
-        <v>310.9067370486074</v>
+        <v>392.4429548535811</v>
       </c>
     </row>
     <row r="20">
@@ -5734,19 +5734,19 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D20" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E20" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G20" t="n">
-        <v>430.910136076463</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H20" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5788,7 +5788,7 @@
         <v>4137.027566035665</v>
       </c>
       <c r="V20" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W20" t="n">
         <v>3463.023532176684</v>
@@ -5831,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>234.5401592942214</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="C22" t="n">
         <v>93.2436976906228</v>
@@ -5910,22 +5910,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K22" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N22" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O22" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P22" t="n">
         <v>1761.542230672484</v>
@@ -5934,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T22" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U22" t="n">
-        <v>1181.450483200946</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V22" t="n">
-        <v>937.3616489751525</v>
+        <v>992.8374564650669</v>
       </c>
       <c r="W22" t="n">
-        <v>688.0888953187118</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="X22" t="n">
-        <v>479.5419440130801</v>
+        <v>535.0177515029942</v>
       </c>
       <c r="Y22" t="n">
-        <v>284.6031562365297</v>
+        <v>340.0789637264437</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489452</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G23" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H23" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6004,7 +6004,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6022,10 +6022,10 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W23" t="n">
         <v>3463.023532176683</v>
@@ -6034,7 +6034,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>741.8628115185547</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>1584.839892213121</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1584.839892213121</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>1584.839892213121</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
         <v>2110.173374178493</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>234.5401592942214</v>
+        <v>369.3743743489453</v>
       </c>
       <c r="C25" t="n">
-        <v>93.2436976906228</v>
+        <v>228.0779127453467</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>228.0779127453467</v>
       </c>
       <c r="E25" t="n">
-        <v>93.2436976906228</v>
+        <v>228.0779127453467</v>
       </c>
       <c r="F25" t="n">
         <v>93.2436976906228</v>
@@ -6147,22 +6147,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K25" t="n">
         <v>320.2864794362206</v>
       </c>
       <c r="L25" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M25" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N25" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O25" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P25" t="n">
         <v>1761.542230672484</v>
@@ -6171,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T25" t="n">
-        <v>1434.451719820137</v>
+        <v>1677.125733491912</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.450483200946</v>
+        <v>1424.124496872721</v>
       </c>
       <c r="V25" t="n">
-        <v>937.3616489751525</v>
+        <v>1180.035662646928</v>
       </c>
       <c r="W25" t="n">
-        <v>688.0888953187118</v>
+        <v>930.7629089904869</v>
       </c>
       <c r="X25" t="n">
-        <v>479.5419440130801</v>
+        <v>722.2159576848552</v>
       </c>
       <c r="Y25" t="n">
-        <v>284.6031562365297</v>
+        <v>527.2771699083048</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C26" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D26" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.61831520899</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489446</v>
       </c>
       <c r="G26" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764618</v>
       </c>
       <c r="H26" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U26" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M27" t="n">
-        <v>754.331869609911</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N27" t="n">
-        <v>1406.216283632599</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O27" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
         <v>2110.173374178493</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>222.9414315330279</v>
+        <v>126.7003606771713</v>
       </c>
       <c r="C28" t="n">
-        <v>222.9414315330279</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
         <v>93.2436976906228</v>
@@ -6384,52 +6384,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K28" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362207</v>
       </c>
       <c r="L28" t="n">
-        <v>609.3875320253558</v>
+        <v>609.387532025356</v>
       </c>
       <c r="M28" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749241</v>
       </c>
       <c r="N28" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O28" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P28" t="n">
-        <v>1761.542230672484</v>
+        <v>1761.542230672485</v>
       </c>
       <c r="Q28" t="n">
-        <v>1856.27421278407</v>
+        <v>1856.274212784071</v>
       </c>
       <c r="R28" t="n">
-        <v>1800.798405294154</v>
+        <v>1800.798405294155</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.203548008749</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T28" t="n">
-        <v>1434.451719820136</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U28" t="n">
-        <v>1181.450483200945</v>
+        <v>1181.450483200947</v>
       </c>
       <c r="V28" t="n">
-        <v>937.361648975152</v>
+        <v>937.3616489751535</v>
       </c>
       <c r="W28" t="n">
-        <v>688.0888953187111</v>
+        <v>688.0888953187127</v>
       </c>
       <c r="X28" t="n">
-        <v>479.5419440130794</v>
+        <v>479.5419440130811</v>
       </c>
       <c r="Y28" t="n">
-        <v>284.6031562365289</v>
+        <v>284.6031562365308</v>
       </c>
     </row>
     <row r="29">
@@ -6442,22 +6442,22 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281247</v>
       </c>
       <c r="D29" t="n">
         <v>1585.618315208992</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560574</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489461</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764629</v>
+        <v>430.9101360764633</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388658</v>
+        <v>149.7985495388662</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>966.9017898022406</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>1670.858880348135</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
         <v>2110.173374178493</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>284.6031562365289</v>
+        <v>234.5401592942213</v>
       </c>
       <c r="C31" t="n">
-        <v>224.3576019876185</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>224.3576019876185</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
         <v>93.2436976906228</v>
@@ -6621,52 +6621,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362207</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253558</v>
+        <v>609.387532025356</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749241</v>
       </c>
       <c r="N31" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P31" t="n">
-        <v>1761.542230672484</v>
+        <v>1761.542230672485</v>
       </c>
       <c r="Q31" t="n">
-        <v>1856.27421278407</v>
+        <v>1856.274212784071</v>
       </c>
       <c r="R31" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.274212784071</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.203548008749</v>
+        <v>1752.0433466258</v>
       </c>
       <c r="T31" t="n">
-        <v>1434.451719820136</v>
+        <v>1542.291518437188</v>
       </c>
       <c r="U31" t="n">
-        <v>1181.450483200945</v>
+        <v>1289.290281817997</v>
       </c>
       <c r="V31" t="n">
-        <v>937.361648975152</v>
+        <v>1045.201447592204</v>
       </c>
       <c r="W31" t="n">
-        <v>688.0888953187111</v>
+        <v>795.9286939357628</v>
       </c>
       <c r="X31" t="n">
-        <v>479.5419440130794</v>
+        <v>587.3817426301312</v>
       </c>
       <c r="Y31" t="n">
-        <v>284.6031562365289</v>
+        <v>392.4429548535808</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281247</v>
       </c>
       <c r="D32" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560574</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489449</v>
+        <v>809.8415093489461</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764633</v>
       </c>
       <c r="H32" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388662</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6715,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6739,13 +6739,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X32" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y32" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>1210.13812587521</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M33" t="n">
-        <v>2053.115206569777</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>2053.115206569777</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
         <v>2110.173374178493</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>284.6031562365289</v>
+        <v>126.7003606771713</v>
       </c>
       <c r="C34" t="n">
-        <v>284.6031562365289</v>
+        <v>126.7003606771713</v>
       </c>
       <c r="D34" t="n">
-        <v>154.9054223941237</v>
+        <v>126.7003606771713</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771713</v>
       </c>
       <c r="F34" t="n">
         <v>93.2436976906228</v>
@@ -6858,52 +6858,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K34" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362207</v>
       </c>
       <c r="L34" t="n">
-        <v>609.3875320253558</v>
+        <v>609.387532025356</v>
       </c>
       <c r="M34" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749241</v>
       </c>
       <c r="N34" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O34" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P34" t="n">
-        <v>1761.542230672484</v>
+        <v>1761.542230672485</v>
       </c>
       <c r="Q34" t="n">
-        <v>1856.27421278407</v>
+        <v>1856.274212784071</v>
       </c>
       <c r="R34" t="n">
-        <v>1800.798405294154</v>
+        <v>1800.798405294155</v>
       </c>
       <c r="S34" t="n">
-        <v>1644.203548008749</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T34" t="n">
-        <v>1434.451719820136</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U34" t="n">
-        <v>1181.450483200945</v>
+        <v>1181.450483200947</v>
       </c>
       <c r="V34" t="n">
-        <v>937.361648975152</v>
+        <v>937.3616489751535</v>
       </c>
       <c r="W34" t="n">
-        <v>688.0888953187111</v>
+        <v>688.0888953187127</v>
       </c>
       <c r="X34" t="n">
-        <v>479.5419440130794</v>
+        <v>479.5419440130811</v>
       </c>
       <c r="Y34" t="n">
-        <v>284.6031562365289</v>
+        <v>284.6031562365308</v>
       </c>
     </row>
     <row r="35">
@@ -6916,22 +6916,22 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C35" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281247</v>
       </c>
       <c r="D35" t="n">
         <v>1585.618315208992</v>
       </c>
       <c r="E35" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560574</v>
       </c>
       <c r="F35" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489461</v>
       </c>
       <c r="G35" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764633</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388662</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L36" t="n">
-        <v>549.0499539559215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>549.0499539559215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>549.0499539559215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>1253.007044501816</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>1814.712936990346</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>371.9936395339932</v>
+        <v>182.1761681670868</v>
       </c>
       <c r="C37" t="n">
-        <v>230.6971779303946</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>230.6971779303946</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>230.6971779303946</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>230.6971779303946</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
         <v>93.2436976906228</v>
@@ -7095,52 +7095,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K37" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362207</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253558</v>
+        <v>609.387532025356</v>
       </c>
       <c r="M37" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749241</v>
       </c>
       <c r="N37" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O37" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P37" t="n">
-        <v>1761.542230672484</v>
+        <v>1761.542230672485</v>
       </c>
       <c r="Q37" t="n">
-        <v>1856.27421278407</v>
+        <v>1856.274212784071</v>
       </c>
       <c r="R37" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.274212784071</v>
       </c>
       <c r="S37" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498666</v>
       </c>
       <c r="T37" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310053</v>
       </c>
       <c r="U37" t="n">
-        <v>1231.804974281219</v>
+        <v>1236.926290690862</v>
       </c>
       <c r="V37" t="n">
-        <v>987.7161400554253</v>
+        <v>992.837456465069</v>
       </c>
       <c r="W37" t="n">
-        <v>738.4433863989846</v>
+        <v>743.5647028086282</v>
       </c>
       <c r="X37" t="n">
-        <v>529.8964350933528</v>
+        <v>535.0177515029966</v>
       </c>
       <c r="Y37" t="n">
-        <v>529.8964350933528</v>
+        <v>340.0789637264463</v>
       </c>
     </row>
     <row r="38">
@@ -7156,7 +7156,7 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D38" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E38" t="n">
         <v>1201.075010560573</v>
@@ -7174,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7204,22 +7204,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V38" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>286.056555253256</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M39" t="n">
-        <v>1129.033635947823</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>1129.033635947823</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
         <v>1760.328909494509</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>458.5427745949822</v>
+        <v>501.6913733763982</v>
       </c>
       <c r="C40" t="n">
-        <v>317.2463129913835</v>
+        <v>360.3949117727996</v>
       </c>
       <c r="D40" t="n">
-        <v>317.2463129913835</v>
+        <v>230.6971779303945</v>
       </c>
       <c r="E40" t="n">
-        <v>317.2463129913835</v>
+        <v>230.6971779303945</v>
       </c>
       <c r="F40" t="n">
-        <v>317.2463129913835</v>
+        <v>230.6971779303945</v>
       </c>
       <c r="G40" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7335,7 +7335,7 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K40" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L40" t="n">
         <v>609.3875320253558</v>
@@ -7356,28 +7356,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S40" t="n">
-        <v>1644.203548008749</v>
+        <v>1809.442732519365</v>
       </c>
       <c r="T40" t="n">
-        <v>1644.203548008749</v>
+        <v>1809.442732519365</v>
       </c>
       <c r="U40" t="n">
-        <v>1391.202311389558</v>
+        <v>1556.441495900174</v>
       </c>
       <c r="V40" t="n">
-        <v>1147.113477163765</v>
+        <v>1312.352661674381</v>
       </c>
       <c r="W40" t="n">
-        <v>1019.931309236524</v>
+        <v>1063.07990801794</v>
       </c>
       <c r="X40" t="n">
-        <v>811.3843579308923</v>
+        <v>854.5329567123082</v>
       </c>
       <c r="Y40" t="n">
-        <v>616.4455701543418</v>
+        <v>659.5941689357578</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2324.444211508952</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>1914.319620822223</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1509.855690915283</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>1095.51547543218</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>674.4850633858673</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
         <v>490.5039577458317</v>
@@ -7411,7 +7411,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
         <v>885.5886702674168</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4269.84331758475</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V41" t="n">
-        <v>3920.005762921231</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W41" t="n">
-        <v>3536.245462056399</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
-        <v>3135.602064225352</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2734.665391173442</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>370.5005587179772</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="C43" t="n">
-        <v>370.5005587179772</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="D43" t="n">
-        <v>370.5005587179772</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7593,28 +7593,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1618.689520728736</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1618.689520728736</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1618.689520728736</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>1335.891373274861</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V43" t="n">
-        <v>1062.005628214383</v>
+        <v>1184.003444459025</v>
       </c>
       <c r="W43" t="n">
-        <v>782.9359637232569</v>
+        <v>904.9337799678997</v>
       </c>
       <c r="X43" t="n">
-        <v>782.9359637232569</v>
+        <v>666.589917827583</v>
       </c>
       <c r="Y43" t="n">
-        <v>558.2002651120216</v>
+        <v>441.8542192163477</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2238.282892603803</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C44" t="n">
-        <v>1828.158301917073</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1423.694372010133</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1009.35415652703</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7681,19 +7681,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y44" t="n">
-        <v>2648.504072268292</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M45" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N45" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O45" t="n">
-        <v>1458.288960155805</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2019.994852644335</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>850.6960310278942</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>679.6026585896107</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>520.1080139125206</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7839,19 +7839,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1383.093855288175</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>1317.465401913064</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>1038.395737421939</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X46" t="n">
-        <v>1038.395737421939</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y46" t="n">
-        <v>1038.395737421939</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>344.8822479603606</v>
+        <v>516.216223676991</v>
       </c>
       <c r="L2" t="n">
-        <v>522.5652320666171</v>
+        <v>522.5652320666187</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>520.3700584608193</v>
       </c>
       <c r="N2" t="n">
-        <v>519.9921247603917</v>
+        <v>502.736373891554</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
@@ -7999,7 +7999,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8060,22 +8060,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9056167883877</v>
+        <v>482.9056167883893</v>
       </c>
       <c r="L3" t="n">
-        <v>344.8797316095378</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>484.6441177421897</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>484.8313130037739</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>343.0248428014957</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>555.4891820648243</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>337.8664545776218</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>421.0562344946772</v>
       </c>
       <c r="O6" t="n">
-        <v>266.9965351298663</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>531.0119939709983</v>
       </c>
       <c r="L8" t="n">
-        <v>272.0504334731806</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8531,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>66.8161563599358</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>499.2964884458369</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,22 +8768,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>86.34977678504856</v>
       </c>
       <c r="O12" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>613.6913745331453</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
         <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
         <v>877.4504173780091</v>
@@ -9181,7 +9181,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q17" t="n">
         <v>414.4388617681339</v>
@@ -9251,22 +9251,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>758.4864973512193</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>204.0221919942796</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M21" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9722,10 +9722,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
@@ -9734,10 +9734,10 @@
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>584.8995157759063</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>711.6624984671718</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>498.0116489728624</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>518.93822867521</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>115.3859917360771</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>88.85829947169823</v>
@@ -10664,13 +10664,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>339.7023577301357</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -10679,16 +10679,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>355.137504553472</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M38" t="n">
         <v>877.4504173780091</v>
@@ -10904,22 +10904,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>695.4234724815018</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>741.5205988334646</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11375,13 +11375,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11390,16 +11390,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>177.6401345621998</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875626</v>
+        <v>111.2605801146904</v>
       </c>
       <c r="D13" t="n">
-        <v>128.400756503981</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>76.76072710101482</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.68364371037919</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501642</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>51.84035121586605</v>
       </c>
       <c r="D16" t="n">
-        <v>128.400756503981</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.68364371037919</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501628</v>
+        <v>54.92104941501642</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>99.81266623873732</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>128.400756503981</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162598</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.68364371037919</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.92104941501642</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>51.84035121586594</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>26.04054500395691</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>106.7614006308807</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>51.84035121586605</v>
       </c>
       <c r="D22" t="n">
-        <v>128.400756503981</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162598</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037904</v>
+        <v>85.68364371037919</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501642</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>106.7614006308807</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>128.400756503981</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162598</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037904</v>
+        <v>85.68364371037909</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501633</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>185.3262241200415</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.2786601473</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>106.7614006308795</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540256</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041765</v>
       </c>
       <c r="G28" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373739</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162599</v>
+        <v>118.6124389162598</v>
       </c>
       <c r="I28" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>80.24039828114135</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>129.8027652540256</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041765</v>
       </c>
       <c r="G31" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373739</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162599</v>
+        <v>118.6124389162598</v>
       </c>
       <c r="I31" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037902</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501625</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>51.84035121586329</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E34" t="n">
-        <v>68.7576577975598</v>
+        <v>129.8027652540256</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041767</v>
+        <v>100.3637765474935</v>
       </c>
       <c r="G34" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373739</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6124389162599</v>
+        <v>118.6124389162598</v>
       </c>
       <c r="I34" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037902</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>51.84035121586318</v>
       </c>
       <c r="D37" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E37" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540256</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041765</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>136.0789454373739</v>
       </c>
       <c r="H37" t="n">
-        <v>118.6124389162599</v>
+        <v>118.6124389162598</v>
       </c>
       <c r="I37" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>54.92104941501625</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>49.8509461694706</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.92104941501634</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>108.6657432504928</v>
       </c>
       <c r="T40" t="n">
         <v>207.6543099067269</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>120.869679871908</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>222.4997066824608</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>80.50644829444514</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>74.04738088901505</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>10.656701722089</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>134.6847134965116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26040,10 +26040,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>206.1747187685135</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>8.893130557884319</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>530464.7163848135</v>
+        <v>530464.7163848137</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>533514.9955069327</v>
+        <v>533514.9955069325</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>533514.9955069326</v>
+        <v>533514.9955069327</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>493137.1721001533</v>
+        <v>493137.1721001532</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>493137.1721001531</v>
+        <v>493137.1721001532</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>635241.3328265821</v>
+        <v>635241.3328265824</v>
       </c>
       <c r="C2" t="n">
         <v>635241.3328265822</v>
       </c>
       <c r="D2" t="n">
-        <v>635241.332826582</v>
+        <v>635241.3328265821</v>
       </c>
       <c r="E2" t="n">
-        <v>615612.8085600276</v>
+        <v>615612.808560027</v>
       </c>
       <c r="F2" t="n">
-        <v>615612.8085600276</v>
+        <v>615612.8085600269</v>
       </c>
       <c r="G2" t="n">
-        <v>615612.8085600273</v>
+        <v>615612.808560027</v>
       </c>
       <c r="H2" t="n">
-        <v>615612.8085600276</v>
+        <v>615612.8085600274</v>
       </c>
       <c r="I2" t="n">
+        <v>615612.808560028</v>
+      </c>
+      <c r="J2" t="n">
+        <v>615612.8085600277</v>
+      </c>
+      <c r="K2" t="n">
+        <v>615612.8085600275</v>
+      </c>
+      <c r="L2" t="n">
+        <v>615612.8085600277</v>
+      </c>
+      <c r="M2" t="n">
+        <v>615612.8085600277</v>
+      </c>
+      <c r="N2" t="n">
         <v>615612.8085600279</v>
       </c>
-      <c r="J2" t="n">
-        <v>615612.8085600276</v>
-      </c>
-      <c r="K2" t="n">
-        <v>615612.8085600277</v>
-      </c>
-      <c r="L2" t="n">
-        <v>615612.8085600276</v>
-      </c>
-      <c r="M2" t="n">
-        <v>615612.8085600275</v>
-      </c>
-      <c r="N2" t="n">
-        <v>615612.8085600275</v>
-      </c>
       <c r="O2" t="n">
-        <v>564814.9016934327</v>
+        <v>564814.9016934326</v>
       </c>
       <c r="P2" t="n">
-        <v>564814.9016934329</v>
+        <v>564814.9016934328</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108462</v>
+        <v>143124.2752108467</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.46086668859</v>
+        <v>30686.46086668807</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215728.9162805136</v>
+        <v>215728.9162805135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>135342.0294691534</v>
+        <v>135342.0294691538</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.77426110987</v>
+        <v>24445.77426110946</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206246.679341369</v>
+        <v>206246.6793413687</v>
       </c>
       <c r="C4" t="n">
         <v>184088.9587438941</v>
@@ -26426,31 +26426,31 @@
         <v>184088.9587438941</v>
       </c>
       <c r="E4" t="n">
-        <v>74729.89476777164</v>
+        <v>74729.89476777149</v>
       </c>
       <c r="F4" t="n">
-        <v>74729.89476777162</v>
+        <v>74729.89476777149</v>
       </c>
       <c r="G4" t="n">
-        <v>74729.89476777164</v>
+        <v>74729.8947677715</v>
       </c>
       <c r="H4" t="n">
-        <v>74729.89476777162</v>
+        <v>74729.8947677715</v>
       </c>
       <c r="I4" t="n">
-        <v>74729.89476777162</v>
+        <v>74729.89476777159</v>
       </c>
       <c r="J4" t="n">
-        <v>74729.89476777156</v>
+        <v>74729.89476777165</v>
       </c>
       <c r="K4" t="n">
-        <v>74729.89476777156</v>
+        <v>74729.89476777166</v>
       </c>
       <c r="L4" t="n">
-        <v>74729.89476777156</v>
+        <v>74729.89476777165</v>
       </c>
       <c r="M4" t="n">
-        <v>74729.89476777158</v>
+        <v>74729.89476777166</v>
       </c>
       <c r="N4" t="n">
         <v>74729.89476777156</v>
@@ -26459,7 +26459,7 @@
         <v>44919.86535090264</v>
       </c>
       <c r="P4" t="n">
-        <v>44919.86535090263</v>
+        <v>44919.86535090264</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742935</v>
+        <v>59594.05390742945</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26478,31 +26478,31 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="F5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="G5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="H5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="I5" t="n">
         <v>73345.15677686484</v>
       </c>
       <c r="J5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="K5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="L5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="M5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="N5" t="n">
         <v>73345.15677686482</v>
@@ -26524,46 +26524,46 @@
         <v>226276.3243669376</v>
       </c>
       <c r="C6" t="n">
-        <v>355096.848137502</v>
+        <v>355096.8481375026</v>
       </c>
       <c r="D6" t="n">
         <v>385783.3090041904</v>
       </c>
       <c r="E6" t="n">
-        <v>251808.8407348775</v>
+        <v>251758.5111854758</v>
       </c>
       <c r="F6" t="n">
-        <v>467537.7570153912</v>
+        <v>467487.4274659892</v>
       </c>
       <c r="G6" t="n">
-        <v>467537.7570153908</v>
+        <v>467487.4274659893</v>
       </c>
       <c r="H6" t="n">
-        <v>467537.7570153912</v>
+        <v>467487.4274659897</v>
       </c>
       <c r="I6" t="n">
-        <v>467537.7570153914</v>
+        <v>467487.42746599</v>
       </c>
       <c r="J6" t="n">
-        <v>332195.7275462379</v>
+        <v>332145.397996836</v>
       </c>
       <c r="K6" t="n">
-        <v>443091.9827542815</v>
+        <v>443041.6532048802</v>
       </c>
       <c r="L6" t="n">
-        <v>467537.7570153913</v>
+        <v>467487.4274659898</v>
       </c>
       <c r="M6" t="n">
-        <v>307179.3065147084</v>
+        <v>307128.9769653071</v>
       </c>
       <c r="N6" t="n">
-        <v>467537.7570153911</v>
+        <v>467487.42746599</v>
       </c>
       <c r="O6" t="n">
-        <v>449029.8260976567</v>
+        <v>448849.2455050075</v>
       </c>
       <c r="P6" t="n">
-        <v>449029.826097657</v>
+        <v>448849.2455050077</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="K2" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="L2" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="M2" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="N2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037723</v>
+        <v>427.0798340037739</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,10 +26928,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037723</v>
+        <v>427.0798340037739</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625325</v>
+        <v>94.98373636625166</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037723</v>
+        <v>427.0798340037739</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625325</v>
+        <v>94.98373636625166</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627595</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,10 +27165,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037723</v>
+        <v>427.0798340037739</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625325</v>
+        <v>94.98373636625166</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>333.1472850908333</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>72.2963510300529</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>36.30171687279746</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>103.9543291284528</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>92.98574849428309</v>
       </c>
       <c r="E4" t="n">
-        <v>129.3301592135993</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>11.48287933845657</v>
+        <v>29.94534391296457</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,10 +27675,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -27827,22 +27827,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>93.42449318090726</v>
       </c>
       <c r="Y7" t="n">
-        <v>100.214843983191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>145.4111437922969</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -27918,10 +27918,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>11.75949205792773</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75.20277457702075</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>23.12472639190929</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633806</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="C26" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="D26" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="E26" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="F26" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="G26" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="H26" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="I26" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="T26" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="U26" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="V26" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="W26" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="X26" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="C28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="D28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="E28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="F28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="G28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="H28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="I28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="J28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="K28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="L28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="M28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="N28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="O28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="P28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="R28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="S28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="T28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="U28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="V28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="W28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="X28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="C29" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="D29" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="E29" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="F29" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="G29" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="H29" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="I29" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="T29" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="U29" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="V29" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="W29" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="X29" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="C31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="D31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="E31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="F31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="G31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="H31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="I31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="J31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="K31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="L31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="M31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="N31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="O31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="P31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="R31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="S31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="T31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="U31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="V31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="W31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="X31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="C32" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="D32" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="E32" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="F32" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="G32" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="H32" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="I32" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="T32" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="U32" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="V32" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="W32" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="X32" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="C34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="D34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="E34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="F34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="G34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="H34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="I34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="J34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="K34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="L34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="M34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="N34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="O34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="P34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="R34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="S34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="T34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="U34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="V34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="W34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="X34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="C35" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="D35" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="E35" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="F35" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="G35" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="H35" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="I35" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="T35" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="U35" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="V35" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="W35" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="X35" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="C37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="D37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="E37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="F37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="G37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="H37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="I37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="J37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="K37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="L37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="M37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="N37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="O37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="P37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="R37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="S37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="T37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="U37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="V37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="W37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="X37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.498941726338</v>
+        <v>29.4989417263381</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="41">
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>255.7458582871434</v>
+        <v>427.0798340037739</v>
       </c>
       <c r="L2" t="n">
-        <v>427.0798340037723</v>
+        <v>427.0798340037739</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>427.0798340037739</v>
       </c>
       <c r="N2" t="n">
-        <v>427.0798340037723</v>
+        <v>409.8240831349347</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>427.0798340037723</v>
+        <v>427.0798340037739</v>
       </c>
       <c r="L3" t="n">
-        <v>288.7652077986887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>427.0798340037723</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>427.0798340037739</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>288.7652077986919</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>367.8628411009272</v>
+      </c>
+      <c r="O6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>209.2450561298663</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="L8" t="n">
-        <v>176.5650354103358</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.70163254908676</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>33.15638339129857</v>
       </c>
       <c r="O12" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533845</v>
       </c>
       <c r="K13" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L13" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N13" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P13" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978335</v>
+        <v>95.6888708197832</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>560.4979811393954</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533845</v>
       </c>
       <c r="K16" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L16" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M16" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N16" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P16" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978335</v>
+        <v>95.6888708197832</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
         <v>784.1601929209636</v>
@@ -35901,7 +35901,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q17" t="n">
         <v>324.4050573689818</v>
@@ -35971,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>700.9222136128019</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>146.2707129942796</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533845</v>
       </c>
       <c r="K19" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L19" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M19" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N19" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P19" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978335</v>
+        <v>95.6888708197832</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533845</v>
       </c>
       <c r="K22" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L22" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M22" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N22" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P22" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978335</v>
+        <v>95.6888708197832</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,10 +36442,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>530.6398807731025</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>29.85810036629282</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K25" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L25" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M25" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N25" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P25" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978335</v>
+        <v>95.6888708197833</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>658.4691050734218</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>29.85810036629282</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533862</v>
       </c>
       <c r="K28" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L28" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415508</v>
       </c>
       <c r="M28" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N28" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983081</v>
       </c>
       <c r="O28" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P28" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754415</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978338</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>443.7520139700587</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>29.85810036629282</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533862</v>
       </c>
       <c r="K31" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L31" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415508</v>
       </c>
       <c r="M31" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N31" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983081</v>
       </c>
       <c r="O31" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P31" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754415</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978338</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>57.63451273607708</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>29.85810036629282</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533862</v>
       </c>
       <c r="K34" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L34" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415508</v>
       </c>
       <c r="M34" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N34" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983081</v>
       </c>
       <c r="O34" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P34" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754415</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978338</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>283.8765749455203</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.4448860486332</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533862</v>
       </c>
       <c r="K37" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L37" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415508</v>
       </c>
       <c r="M37" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N37" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983081</v>
       </c>
       <c r="O37" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P37" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754415</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978338</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M38" t="n">
         <v>784.1601929209636</v>
@@ -37624,22 +37624,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>637.6719934815018</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K40" t="n">
         <v>185.6124040720329</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>120.947516057361</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
